--- a/biology/Zoologie/Glis_(genre)/Glis_(genre).xlsx
+++ b/biology/Zoologie/Glis_(genre)/Glis_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myoxus
-Glis est un genre de rongeurs sciuromorphes de la famille des Gliridae. Il ne comprend qu'une seule espèce actuelle : le Loir gris (Glis glis)[1].
+Glis est un genre de rongeurs sciuromorphes de la famille des Gliridae. Il ne comprend qu'une seule espèce actuelle : le Loir gris (Glis glis).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Loir gris se rencontre en Europe depuis la cordillère Cantabrique, au nord de la Turquie, au Caucase jusqu'au nord de l'Iran et au Turkménistan[2]. Les espèces fossiles ont été toute découvertes en Europe[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Loir gris se rencontre en Europe depuis la cordillère Cantabrique, au nord de la Turquie, au Caucase jusqu'au nord de l'Iran et au Turkménistan. Les espèces fossiles ont été toute découvertes en Europe.
 </t>
         </is>
       </c>
@@ -543,14 +557,51 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit pour la première fois en 1762 par le zoologiste français Mathurin Jacques Brisson (1723-1806). Il a pour synonymes Elius, Myorus et Myoxus[1],[3].
-La seule espèce actuelle du genre étant le Loir gris, Glis est traditionnellement considéré comme étant un genre monospécifique, mais il comprend aussi des espèces fossiles[4].
-Liste des espèces
-L'espèce actuelle selon Catalogue of Life                                  (9 octobre 2013)[5], ITIS      (9 octobre 2013)[6], Mammal Species of the World (version 3, 2005)  (9 octobre 2013)[7] et NCBI  (9 octobre 2013)[8] est :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1762 par le zoologiste français Mathurin Jacques Brisson (1723-1806). Il a pour synonymes Elius, Myorus et Myoxus,.
+La seule espèce actuelle du genre étant le Loir gris, Glis est traditionnellement considéré comme étant un genre monospécifique, mais il comprend aussi des espèces fossiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glis_(genre)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glis_(genre)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce actuelle selon Catalogue of Life                                  (9 octobre 2013), ITIS      (9 octobre 2013), Mammal Species of the World (version 3, 2005)  (9 octobre 2013) et NCBI  (9 octobre 2013) est :
 Glis glis Linnaeus, 1766 - Loir gris.
-Les espèces actuelles et éteintes selon Paleobiology Database                   (9 octobre 2013)[4] sont :
+Les espèces actuelles et éteintes selon Paleobiology Database                   (9 octobre 2013) sont :
 † Glis antiquus Kormos, 1930 ;
 † Glis apertus Mayr, 1979 ;
 † Glis galitopouli van der Meulen &amp; de Bruijn, 1982 ;
